--- a/storage/excel/import/attribute/10-29/孕婴童1029.xlsx
+++ b/storage/excel/import/attribute/10-29/孕婴童1029.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="孕婴童1029" sheetId="1" r:id="rId1"/>
@@ -551,9 +551,6 @@
     <t>洗手液</t>
   </si>
   <si>
-    <t>洗衣皂</t>
-  </si>
-  <si>
     <t>婴儿皂/儿童皂/香皂</t>
   </si>
   <si>
@@ -601,6 +598,9 @@
       <t>yong'p</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣皂/洗衣液</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
   <dimension ref="A1:EZ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="2" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -7159,7 +7159,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -7629,7 +7629,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -8096,10 +8096,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
         <v>176</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -8566,10 +8566,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -9036,10 +9036,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -9506,10 +9506,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -9976,10 +9976,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -10446,10 +10446,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" t="s">
         <v>181</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -10916,10 +10916,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -11386,10 +11386,10 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -11856,10 +11856,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
         <v>185</v>
-      </c>
-      <c r="C25" t="s">
-        <v>186</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -12326,10 +12326,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -12796,10 +12796,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27">
         <v>3</v>
